--- a/content/drafts/entitats/Codis_Territori_Provincies.xlsx
+++ b/content/drafts/entitats/Codis_Territori_Provincies.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAA\CTTI\02.Projecte_DadesRef\_____c6\01.CATaleg\07.Proposta_noves_ER\04.Cataleg_Entitats_Modelades.v03\01.Cataleg_inicial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAA\CTTI\02.Projecte_DadesRef\_____c6\01.CATaleg\07.Proposta_noves_ER\04.Cataleg_Entitats_Modelades.v03\06.Canvis_Canigo_Draft_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BE08A1-AF68-4F54-9786-01DCFF6268C5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C530075F-421E-46DE-8FEE-1C08B82FE3FC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2217,6 +2217,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010008DEA6A335D5DB4C80041820F961B988" ma:contentTypeVersion="1" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="367d9f143660f58e8d16a0b6b83542cc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="572ac8b42f3ef587f96d641b4f387de3" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2348,38 +2366,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB1D2D2E-ADBF-49F4-95AB-5EF56038E516}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{020D7AE1-34CC-4699-A1E6-0DF4BD52F1C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2401,9 +2391,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{020D7AE1-34CC-4699-A1E6-0DF4BD52F1C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB1D2D2E-ADBF-49F4-95AB-5EF56038E516}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>